--- a/excelFile/2023-12-05-冷氣-安裝確認書.xlsx
+++ b/excelFile/2023-12-05-冷氣-安裝確認書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark-proart\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E585E102-F2C8-439C-8626-8FFFA7069D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2C968E6-94D6-7648-AE79-1BA0198F1244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" tabRatio="836" xr2:uid="{27EBA309-DDB6-4B07-B11E-16E8EC6E0A4C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28780" windowHeight="16220" tabRatio="836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -1981,7 +1981,7 @@
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="178" formatCode="000"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2460,14 +2460,152 @@
     <xf numFmtId="176" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2493,30 +2631,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2526,6 +2640,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2544,130 +2688,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2682,56 +2703,35 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3046,45 +3046,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFCD703-2AAA-4560-9697-7517FFE78502}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="E9" sqref="A1:I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.36328125" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.33203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6328125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="7.36328125" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="7.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:9" ht="40" customHeight="1">
+      <c r="A1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3096,39 +3099,39 @@
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="45"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="36" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="34.25" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3138,438 +3141,438 @@
       <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="54"/>
+      <c r="I4" s="79"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="60" t="s">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="69"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="70"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="76"/>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="50.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="82"/>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:9" ht="30" customHeight="1">
+      <c r="A9" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="83" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92"/>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="83"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88"/>
+    <row r="10" spans="1:9" ht="30" customHeight="1">
+      <c r="A10" s="90"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="95"/>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="89"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="91"/>
+    <row r="11" spans="1:9" ht="30" customHeight="1">
+      <c r="A11" s="96"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="98"/>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1">
+      <c r="A12" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="77" t="s">
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A13" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="79"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="77" t="s">
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A14" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="79"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="77" t="s">
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="79"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="77" t="s">
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A16" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="79"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="77" t="s">
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A17" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="79"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="77" t="s">
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A18" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="79"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="77" t="s">
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A19" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="79"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="77" t="s">
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A20" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="79"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="77" t="s">
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A21" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="79"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="77" t="s">
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A22" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="79"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="77" t="s">
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A23" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="79"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="80" t="s">
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A24" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="82"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="89"/>
     </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="94" t="s">
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A25" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="96"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
     </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="77" t="s">
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="79"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="37"/>
     </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="97" t="s">
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A27" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="99"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="77" t="s">
+    <row r="28" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A28" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="79"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="100" t="s">
+    <row r="29" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A29" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="79"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
     </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="77" t="s">
+    <row r="30" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A30" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="79"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
     </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="100" t="s">
+    <row r="31" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A31" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="79"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="37"/>
     </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="21" t="s">
+    <row r="32" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A32" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
+    <row r="33" spans="1:9" s="4" customFormat="1" ht="8.75" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" s="4" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" s="4" customFormat="1" ht="35.25" customHeight="1">
       <c r="A34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28" t="s">
+      <c r="C34" s="18"/>
+      <c r="D34" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28" t="s">
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="67"/>
     </row>
-    <row r="35" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A35" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="17" t="s">
+      <c r="D35" s="65"/>
+      <c r="E35" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="17" t="s">
+      <c r="F35" s="65"/>
+      <c r="G35" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
     </row>
-    <row r="36" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+    <row r="36" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A36" s="60"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
     </row>
-    <row r="51" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="19.5" customHeight="1"/>
+    <row r="54" ht="20.25" customHeight="1"/>
+    <row r="55" ht="20.25" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="48">
@@ -3578,6 +3581,9 @@
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="A26:I26"/>
@@ -3592,6 +3598,8 @@
     <mergeCell ref="A30:I30"/>
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A24:I24"/>
     <mergeCell ref="H35:I36"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
@@ -3600,8 +3608,6 @@
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A24:I24"/>
     <mergeCell ref="A32:I33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:F34"/>
@@ -3618,14 +3624,11 @@
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.49953703703703706" bottom="0.22094907407407408" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.499537037037037" bottom="0.22094907407407399" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L&amp;"華康兒風體W4(P),標準"&amp;20配送人 :                  配送日期 :  </oddHeader>
   </headerFooter>
